--- a/Mapeo-IS2/src/resources/SistemasInformacionII.xlsx
+++ b/Mapeo-IS2/src/resources/SistemasInformacionII.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UNIVERSIDAD\Curso 22-23\Sistemas de Informacion II\Practica 2 Finalizada\"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="548">
   <si>
     <t>Nombre</t>
   </si>
@@ -1306,12 +1306,379 @@
   </si>
   <si>
     <t>MEI TRABAJADOR</t>
+  </si>
+  <si>
+    <t>DK7331645124473461205164</t>
+  </si>
+  <si>
+    <t>ES8265614874165615445616</t>
+  </si>
+  <si>
+    <t>RO8832569523016220165156</t>
+  </si>
+  <si>
+    <t>DE7424561937521546497521</t>
+  </si>
+  <si>
+    <t>MC6436520125638451012515</t>
+  </si>
+  <si>
+    <t>ES0721584976902154655487</t>
+  </si>
+  <si>
+    <t>GR9420125003305201112544</t>
+  </si>
+  <si>
+    <t>ES2821651484690980008984</t>
+  </si>
+  <si>
+    <t>FI5620960043043554600000</t>
+  </si>
+  <si>
+    <t>ES7921564975243245467995</t>
+  </si>
+  <si>
+    <t>LT8032566221522587754554</t>
+  </si>
+  <si>
+    <t>232154653105456411515</t>
+  </si>
+  <si>
+    <t>EE59232154653105456411515</t>
+  </si>
+  <si>
+    <t>BE9400750184310702510000</t>
+  </si>
+  <si>
+    <t>SM2125894363475485700145</t>
+  </si>
+  <si>
+    <t>9643124510108150005156</t>
+  </si>
+  <si>
+    <t>ES189643124510108150005156</t>
+  </si>
+  <si>
+    <t>250300001014574745458</t>
+  </si>
+  <si>
+    <t>AT24250300001014574745458</t>
+  </si>
+  <si>
+    <t>159536848101254695203</t>
+  </si>
+  <si>
+    <t>IT71159536848101254695203</t>
+  </si>
+  <si>
+    <t>ES9020960043023096200000</t>
+  </si>
+  <si>
+    <t>DK5800750184310702510000</t>
+  </si>
+  <si>
+    <t>ES5023455254943263234457</t>
+  </si>
+  <si>
+    <t>GR4920910936583000000000</t>
+  </si>
+  <si>
+    <t>ES3720960043032159000000</t>
+  </si>
+  <si>
+    <t>126696811105112121210</t>
+  </si>
+  <si>
+    <t>DE57126696811105112121210</t>
+  </si>
+  <si>
+    <t>ES2956187775315550000651</t>
+  </si>
+  <si>
+    <t>ES0425516848021156151054</t>
+  </si>
+  <si>
+    <t>PT5764578946740051516490</t>
+  </si>
+  <si>
+    <t>ES4534698752714600549403</t>
+  </si>
+  <si>
+    <t>666494441062310000255</t>
+  </si>
+  <si>
+    <t>ES97666494441062310000255</t>
+  </si>
+  <si>
+    <t>FR5623185484465641685100</t>
+  </si>
+  <si>
+    <t>DE5021508149175421346497</t>
+  </si>
+  <si>
+    <t>DE6721346154503164978451</t>
+  </si>
+  <si>
+    <t>ES7225187786311225455548</t>
+  </si>
+  <si>
+    <t>ES4723164897642213030615</t>
+  </si>
+  <si>
+    <t>ES2396536214865214585214</t>
+  </si>
+  <si>
+    <t>ES6885461325251978750005</t>
+  </si>
+  <si>
+    <t>FI5024587946032003165464</t>
+  </si>
+  <si>
+    <t>ES5020960043073071400000</t>
+  </si>
+  <si>
+    <t>ES8220960043042158800000</t>
+  </si>
+  <si>
+    <t>ES7521654587985156484454</t>
+  </si>
+  <si>
+    <t>ES3251651681961210656510</t>
+  </si>
+  <si>
+    <t>665522111048855332200</t>
+  </si>
+  <si>
+    <t>ES33665522111048855332200</t>
+  </si>
+  <si>
+    <t>GB9720910936583000000000</t>
+  </si>
+  <si>
+    <t>DE9301821135910205540000</t>
+  </si>
+  <si>
+    <t>DE7822631245526916432102</t>
+  </si>
+  <si>
+    <t>ES2120960043043075700000</t>
+  </si>
+  <si>
+    <t>SM7325635478321002541225</t>
+  </si>
+  <si>
+    <t>ES6832154697195423121000</t>
+  </si>
+  <si>
+    <t>GR3836521452736500658485</t>
+  </si>
+  <si>
+    <t>GB5520008521528775113366</t>
+  </si>
+  <si>
+    <t>ES8020960043033000100000</t>
+  </si>
+  <si>
+    <t>GB0836585214290025478551</t>
+  </si>
+  <si>
+    <t>ES9012548523465214585214</t>
+  </si>
+  <si>
+    <t>ES6931624561042546920007</t>
+  </si>
+  <si>
+    <t>361542317102500312566</t>
+  </si>
+  <si>
+    <t>ES91361542317102500312566</t>
+  </si>
+  <si>
+    <t>448756641027231645789</t>
+  </si>
+  <si>
+    <t>ES52448756641027231645789</t>
+  </si>
+  <si>
+    <t>ES7920960031442124800000</t>
+  </si>
+  <si>
+    <t>ES1633620012937852100256</t>
+  </si>
+  <si>
+    <t>ES1933218885441445121022</t>
+  </si>
+  <si>
+    <t>625815427103690044508</t>
+  </si>
+  <si>
+    <t>ES03625815427103690044508</t>
+  </si>
+  <si>
+    <t>ES3925165151118666365100</t>
+  </si>
+  <si>
+    <t>PT3536952365020014425254</t>
+  </si>
+  <si>
+    <t>ES9565168874641561561500</t>
+  </si>
+  <si>
+    <t>ES3220960583831234500000</t>
+  </si>
+  <si>
+    <t>214163258101510005514</t>
+  </si>
+  <si>
+    <t>ES38214163258101510005514</t>
+  </si>
+  <si>
+    <t>LU0932628484504115151115</t>
+  </si>
+  <si>
+    <t>20960056133231500000</t>
+  </si>
+  <si>
+    <t>ES2220960056133231500000</t>
+  </si>
+  <si>
+    <t>ES8163516541828944000984</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>ES6223658965274585223202</t>
+  </si>
+  <si>
+    <t>FI6132658012367712548745</t>
+  </si>
+  <si>
+    <t>236523651042254222000</t>
+  </si>
+  <si>
+    <t>ES83236523651042254222000</t>
+  </si>
+  <si>
+    <t>200125411050023365233</t>
+  </si>
+  <si>
+    <t>FR46200125411050023365233</t>
+  </si>
+  <si>
+    <t>ES9232584216971684051000</t>
+  </si>
+  <si>
+    <t>ES7395485212315484010000</t>
+  </si>
+  <si>
+    <t>LT9321856333126985542360</t>
+  </si>
+  <si>
+    <t>362459781033245679001</t>
+  </si>
+  <si>
+    <t>ES15362459781033245679001</t>
+  </si>
+  <si>
+    <t>ES7631245164156597845124</t>
+  </si>
+  <si>
+    <t>SM4423221158252545471411</t>
+  </si>
+  <si>
+    <t>SE6832574512085411002255</t>
+  </si>
+  <si>
+    <t>209600430103468900000</t>
+  </si>
+  <si>
+    <t>ES74209600430103468900000</t>
+  </si>
+  <si>
+    <t>ES5631215643855060225021</t>
+  </si>
+  <si>
+    <t>AT3285550564726165145610</t>
+  </si>
+  <si>
+    <t>651656549108886005001</t>
+  </si>
+  <si>
+    <t>ES03651656549108886005001</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>AT8365645150865168448896</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>IT3526551681807651415636</t>
+  </si>
+  <si>
+    <t>HU2399558741836555551120</t>
+  </si>
+  <si>
+    <t>ES4352198484752100515144</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
+    <t>IE6851556584221251000254</t>
+  </si>
+  <si>
+    <t>DK9032541112811220000588</t>
+  </si>
+  <si>
+    <t>62541122421110105611</t>
+  </si>
+  <si>
+    <t>LT9362541122421110105611</t>
+  </si>
+  <si>
+    <t>ES6855065688761051056105</t>
+  </si>
+  <si>
+    <t>ES7426221011628048788896</t>
+  </si>
+  <si>
+    <t>ES9712548521518742146695</t>
+  </si>
+  <si>
+    <t>018265301020201560000</t>
+  </si>
+  <si>
+    <t>ES24018265301020201560000</t>
+  </si>
+  <si>
+    <t>ES9021651651812511133551</t>
+  </si>
+  <si>
+    <t>516514879100005118185</t>
+  </si>
+  <si>
+    <t>ES29516514879100005118185</t>
+  </si>
+  <si>
+    <t>CZ9536250012804785523365</t>
+  </si>
+  <si>
+    <t>225156519105640081000</t>
+  </si>
+  <si>
+    <t>AT97225156519105640081000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1725,16 +2092,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="2"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="19.140625"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125"/>
+    <col min="12" max="12" style="2" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1743,76 +2110,78 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>422</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="3">
         <v>416</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="E2" s="1">
         <v>42461</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>135</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>46</v>
       </c>
       <c r="N2" s="1">
@@ -1823,2429 +2192,2566 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s" s="3">
         <v>415</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="E3" s="1">
         <v>42461</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>221</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s" s="3">
         <v>414</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="E4" s="1">
         <v>42979</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s" s="3">
         <v>413</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="E5" s="1">
         <v>42979</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s" s="3">
         <v>412</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="E6" s="1">
         <v>43221</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>226</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s" s="3">
         <v>405</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="E7" s="1">
         <v>43222</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>211</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s" s="3">
         <v>411</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="E8" s="1">
         <v>40787</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s" s="3">
         <v>410</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="E9" s="1">
         <v>40787</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="E10" s="1">
         <v>40787</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>263</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s" s="3">
         <v>408</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="E11" s="1">
         <v>41030</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>251</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s" s="3">
         <v>407</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="E12" s="1">
         <v>41030</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>261</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C13"/>
+      <c r="B13" t="s" s="3">
+        <v>437</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="E13" s="1">
         <v>43952</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>248</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s" s="3">
         <v>398</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="E14" s="1">
         <v>38718</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s" s="3">
         <v>404</v>
       </c>
-      <c r="C16"/>
+      <c r="C16" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="E16" s="1">
         <v>38384</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>287</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C17"/>
+      <c r="B17" t="s" s="3">
+        <v>441</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="E17" s="1">
         <v>43191</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>52</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C18"/>
+      <c r="B18" t="s" s="3">
+        <v>443</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="E18" s="1">
         <v>36192</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C19"/>
+      <c r="B19" t="s" s="3">
+        <v>445</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="E19" s="1">
         <v>40909</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" t="s" s="0">
         <v>163</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s" s="3">
         <v>399</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="E20" s="1">
         <v>40269</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" t="s" s="0">
         <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s" s="3">
         <v>398</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="E21" s="1">
         <v>43282</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>140</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s" s="3">
         <v>396</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="E22" s="1">
         <v>41306</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>244</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="E23" s="1">
         <v>40422</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>105</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s" s="3">
         <v>394</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="E24" s="1">
         <v>44075</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="0">
         <v>233</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C25"/>
+      <c r="B25" t="s" s="3">
+        <v>452</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="E25" s="1">
         <v>39814</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="0">
         <v>230</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s" s="3">
         <v>392</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="E27" s="1">
         <v>35096</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" t="s" s="0">
         <v>417</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s" s="3">
         <v>391</v>
       </c>
-      <c r="C28"/>
+      <c r="C28" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="E28" s="1">
         <v>39965</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" t="s" s="0">
         <v>120</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s" s="3">
         <v>390</v>
       </c>
-      <c r="C29"/>
+      <c r="C29" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="E29" s="1">
         <v>35827</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" t="s" s="0">
         <v>418</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" t="s" s="0">
         <v>419</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s" s="3">
         <v>389</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="E30" s="1">
         <v>35400</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" t="s" s="0">
         <v>126</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C31"/>
+      <c r="B31" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="E31" s="1">
         <v>38139</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" t="s" s="0">
         <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s" s="3">
         <v>387</v>
       </c>
-      <c r="C32"/>
+      <c r="C32" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="E32" s="1">
         <v>37530</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" t="s" s="0">
         <v>181</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C33"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C34"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C35"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s" s="3">
         <v>383</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="E36" s="1">
         <v>35551</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" t="s" s="0">
         <v>277</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" t="s" s="0">
         <v>208</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s" s="3">
         <v>382</v>
       </c>
-      <c r="C37"/>
+      <c r="C37" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="E37" s="1">
         <v>40179</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" t="s" s="0">
         <v>144</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s" s="3">
         <v>381</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="E38" s="1">
         <v>42339</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" t="s" s="0">
         <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s" s="3">
         <v>380</v>
       </c>
-      <c r="C39"/>
+      <c r="C39" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="E39" s="1">
         <v>39417</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" t="s" s="0">
         <v>94</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s" s="3">
         <v>379</v>
       </c>
-      <c r="C40"/>
+      <c r="C40" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="E40" s="1">
         <v>37226</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" t="s" s="0">
         <v>172</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s" s="3">
         <v>378</v>
       </c>
-      <c r="C41"/>
+      <c r="C41" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="E41" s="1">
         <v>38961</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" t="s" s="0">
         <v>165</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s" s="3">
         <v>377</v>
       </c>
-      <c r="C42"/>
+      <c r="C42" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="E42" s="1">
         <v>41730</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" t="s" s="0">
         <v>183</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s" s="3">
         <v>375</v>
       </c>
-      <c r="C43"/>
+      <c r="C43" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="E43" s="1">
         <v>39142</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" t="s" s="0">
         <v>209</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s" s="3">
         <v>374</v>
       </c>
-      <c r="C44"/>
+      <c r="C44" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="E44" s="1">
         <v>36739</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" t="s" s="0">
         <v>181</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s" s="3">
         <v>373</v>
       </c>
-      <c r="C45"/>
+      <c r="C45" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="E45" s="1">
         <v>42125</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" t="s" s="0">
         <v>216</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s" s="3">
         <v>372</v>
       </c>
-      <c r="C46"/>
+      <c r="C46" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="E46" s="1">
         <v>39052</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" t="s" s="0">
         <v>109</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C47"/>
+      <c r="B47" t="s" s="3">
+        <v>472</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="E47" s="1">
         <v>40391</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" t="s" s="0">
         <v>156</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="C48"/>
+      <c r="C48" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="E48" s="1">
         <v>40909</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" t="s" s="0">
         <v>191</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s" s="3">
         <v>368</v>
       </c>
-      <c r="C49"/>
+      <c r="C49" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="E49" s="1">
         <v>41456</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s" s="3">
         <v>367</v>
       </c>
-      <c r="C50"/>
+      <c r="C50" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="E50" s="1">
         <v>42248</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" t="s" s="0">
         <v>201</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s" s="3">
         <v>365</v>
       </c>
-      <c r="C51"/>
+      <c r="C51" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="E51" s="1">
         <v>44013</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" t="s" s="0">
         <v>201</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s" s="3">
         <v>364</v>
       </c>
-      <c r="C52"/>
+      <c r="C52" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="E52" s="1">
         <v>39356</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" t="s" s="0">
         <v>135</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s" s="3">
         <v>363</v>
       </c>
-      <c r="C53"/>
+      <c r="C53" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="E53" s="1">
         <v>39661</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" t="s" s="0">
         <v>221</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s" s="3">
         <v>362</v>
       </c>
-      <c r="C54"/>
+      <c r="C54" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="E54" s="1">
         <v>42401</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s" s="3">
         <v>361</v>
       </c>
-      <c r="C55"/>
+      <c r="C55" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="E55" s="1">
         <v>40330</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" t="s" s="0">
         <v>47</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C56"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C57"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C58"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C59"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s" s="3">
         <v>344</v>
       </c>
-      <c r="C60"/>
+      <c r="C60" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="E60" s="1">
         <v>41671</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" t="s" s="0">
         <v>263</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s" s="3">
         <v>356</v>
       </c>
-      <c r="C61"/>
+      <c r="C61" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="E61" s="1">
         <v>37865</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" t="s" s="0">
         <v>421</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s" s="3">
         <v>355</v>
       </c>
-      <c r="C62"/>
+      <c r="C62" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="E62" s="1">
         <v>39904</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" t="s" s="0">
         <v>261</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s" s="3">
         <v>354</v>
       </c>
-      <c r="C63"/>
+      <c r="C63" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="E63" s="1">
         <v>40848</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" t="s" s="0">
         <v>248</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C64"/>
+      <c r="B64" t="s" s="3">
+        <v>486</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="E64" s="1">
         <v>42644</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" t="s" s="0">
         <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C65"/>
+      <c r="B65" t="s" s="3">
+        <v>488</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="E65" s="1">
         <v>35827</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" t="s" s="0">
         <v>69</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="C66"/>
+      <c r="C66" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="E66" s="1">
         <v>39417</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" t="s" s="0">
         <v>287</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s" s="3">
         <v>349</v>
       </c>
-      <c r="C67"/>
+      <c r="C67" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="E67" s="1">
         <v>42156</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" t="s" s="0">
         <v>52</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s" s="3">
         <v>348</v>
       </c>
-      <c r="C68"/>
+      <c r="C68" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="E68" s="1">
         <v>40787</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" t="s" s="0">
         <v>23</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C69"/>
+      <c r="B69" t="s" s="3">
+        <v>493</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="E69" s="1">
         <v>39873</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" t="s" s="0">
         <v>163</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s" s="3">
         <v>346</v>
       </c>
-      <c r="C70"/>
+      <c r="C70" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="E70" s="1">
         <v>39417</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" t="s" s="0">
         <v>226</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s" s="3">
         <v>344</v>
       </c>
-      <c r="C71"/>
+      <c r="C71" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="E71" s="1">
         <v>39448</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" t="s" s="0">
         <v>211</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s" s="3">
         <v>343</v>
       </c>
-      <c r="C72"/>
+      <c r="C72" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="E72" s="1">
         <v>36951</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s" s="3">
         <v>341</v>
       </c>
-      <c r="C73"/>
+      <c r="C73" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="E73" s="1">
         <v>36130</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" t="s" s="0">
         <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s" s="3">
         <v>340</v>
       </c>
-      <c r="C74"/>
+      <c r="C74" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="E74" s="1">
         <v>41061</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" t="s" s="0">
         <v>237</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C75"/>
+      <c r="B75" t="s" s="3">
+        <v>499</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="E75" s="1">
         <v>39661</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" t="s" s="0">
         <v>152</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s" s="3">
         <v>338</v>
       </c>
-      <c r="C76"/>
+      <c r="C76" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="E76" s="1">
         <v>44044</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" t="s" s="0">
         <v>253</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77"/>
+      <c r="B77" t="s" s="3">
+        <v>502</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="E77" s="1">
         <v>40027</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" t="s" s="0">
         <v>257</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s" s="3">
         <v>337</v>
       </c>
-      <c r="C79"/>
+      <c r="C79" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="E79" s="1">
         <v>41548</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" t="s" s="0">
         <v>213</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>293</v>
+      <c r="B80" t="s" s="3">
+        <v>505</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>506</v>
       </c>
       <c r="E80" s="1">
         <v>43009</v>
@@ -4276,83 +4782,90 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s" s="3">
         <v>336</v>
       </c>
-      <c r="C81"/>
+      <c r="C81" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="E81" s="1">
         <v>37500</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" t="s" s="0">
         <v>188</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C82"/>
+      <c r="B82" t="s" s="3">
+        <v>508</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="E82" s="1">
         <v>36526</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" t="s" s="0">
         <v>170</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>292</v>
+      <c r="B83" t="s" s="3">
+        <v>510</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>511</v>
       </c>
       <c r="E83" s="1">
         <v>36861</v>
@@ -4383,413 +4896,438 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s" s="3">
         <v>334</v>
       </c>
-      <c r="C84"/>
+      <c r="C84" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="E84" s="1">
         <v>41730</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" t="s" s="0">
         <v>281</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C85"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s" s="3">
         <v>332</v>
       </c>
-      <c r="C86"/>
+      <c r="C86" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="E86" s="1">
         <v>42644</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" t="s" s="0">
         <v>269</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s" s="3">
         <v>331</v>
       </c>
-      <c r="C87"/>
+      <c r="C87" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="E87" s="1">
         <v>43221</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" t="s" s="0">
         <v>102</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C88"/>
+      <c r="B88" t="s" s="3">
+        <v>515</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="E88" s="1">
         <v>40787</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" t="s" s="0">
         <v>272</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s" s="3">
         <v>329</v>
       </c>
-      <c r="C89"/>
+      <c r="C89" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="E89" s="1">
         <v>38200</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" t="s" s="0">
         <v>275</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s" s="3">
         <v>328</v>
       </c>
-      <c r="C90"/>
+      <c r="C90" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="E90" s="1">
         <v>36312</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s" s="3">
         <v>327</v>
       </c>
-      <c r="C91"/>
+      <c r="C91" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="E91" s="1">
         <v>37895</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C92"/>
+      <c r="B92" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="E92" s="1">
         <v>44105</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" t="s" s="0">
         <v>148</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s" s="3">
         <v>324</v>
       </c>
-      <c r="C93"/>
+      <c r="C93" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="E93" s="1">
         <v>42278</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" t="s" s="0">
         <v>113</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s" s="3">
         <v>322</v>
       </c>
-      <c r="C94"/>
+      <c r="C94" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="E94" s="1">
         <v>41214</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C95"/>
+      <c r="B95" t="s" s="3">
+        <v>524</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="E95" s="1">
         <v>39661</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" t="s" s="0">
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C96"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C97"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C98"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C100"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>291</v>
+      <c r="B102" t="s" s="3">
+        <v>526</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>527</v>
       </c>
       <c r="E102" s="1">
         <v>43070</v>
@@ -4820,11 +5358,14 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>289</v>
+      <c r="B103" t="s" s="3">
+        <v>528</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>529</v>
       </c>
       <c r="E103" s="1">
         <v>43952</v>
@@ -4855,47 +5396,52 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s" s="3">
         <v>315</v>
       </c>
-      <c r="C104"/>
+      <c r="C104" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="E104" s="1">
         <v>41091</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" t="s" s="0">
         <v>253</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s" s="3">
         <v>386</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>531</v>
       </c>
       <c r="E105" s="1">
         <v>44014</v>
@@ -4926,11 +5472,14 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>288</v>
+      <c r="B106" t="s" s="3">
+        <v>532</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>533</v>
       </c>
       <c r="E106" s="1">
         <v>41093</v>
@@ -4961,11 +5510,14 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s" s="3">
         <v>317</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>534</v>
       </c>
       <c r="E127" s="1">
         <v>39142</v>
@@ -4996,11 +5548,14 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>290</v>
+      <c r="B128" t="s" s="3">
+        <v>535</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>536</v>
       </c>
       <c r="E128" s="1">
         <v>36739</v>
@@ -5031,11 +5586,14 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s" s="3">
         <v>333</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>537</v>
       </c>
       <c r="E129" s="1">
         <v>42125</v>
@@ -5066,11 +5624,14 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s" s="3">
         <v>320</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>538</v>
       </c>
       <c r="E130" s="1">
         <v>39052</v>
@@ -5101,11 +5662,14 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s" s="3">
         <v>319</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>539</v>
       </c>
       <c r="E131" s="1">
         <v>40391</v>
@@ -5136,11 +5700,14 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>64</v>
+      <c r="B132" t="s" s="3">
+        <v>540</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>541</v>
       </c>
       <c r="E132" s="1">
         <v>40909</v>
@@ -5171,11 +5738,14 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" t="s" s="3">
         <v>358</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>542</v>
       </c>
       <c r="E133" s="1">
         <v>41456</v>
@@ -5206,11 +5776,14 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>360</v>
+      <c r="B134" t="s" s="3">
+        <v>543</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>544</v>
       </c>
       <c r="E134" s="1">
         <v>42248</v>
@@ -5241,11 +5814,14 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s" s="3">
         <v>385</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>545</v>
       </c>
       <c r="E135" s="1">
         <v>39995</v>
@@ -5273,11 +5849,14 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>384</v>
+      <c r="B136" t="s" s="3">
+        <v>546</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>547</v>
       </c>
       <c r="E136" s="1">
         <v>39356</v>
@@ -5314,7 +5893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -5322,177 +5901,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625"/>
+    <col min="6" max="6" customWidth="true" width="16.0"/>
+    <col min="7" max="7" customWidth="true" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>12500</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1850</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>13000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1500</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>14000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>1800</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>19000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>3500</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>26000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>4800</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>17500</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>2750</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>21000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>3500</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>31000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>10500</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>12500</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>1200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>14500</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>1350</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>20500</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>1500</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>16500</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>1500</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>11000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>1100</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>31000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>5500</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>44</v>
       </c>
     </row>
@@ -5511,159 +6090,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>230</v>
       </c>
     </row>
@@ -5682,467 +6261,467 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" customWidth="true" width="41.42578125"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>12000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>23.6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>13000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>3.6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>14000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>6.5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>15000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>8.5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>16000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>17000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>10.55</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>18000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>11.15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>19000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>11.75</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>425</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>20000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>12.15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>424</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>21000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>12.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>22000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>13.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>23000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>13.85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>24000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>14.15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>25000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>14.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>26000</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>15.3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>27000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>15.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>28000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>16.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>29000</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>16.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="0">
         <v>30000</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>17.25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="0">
         <v>31000</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>17.45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="0">
         <v>32000</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>17.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="0">
         <v>33000</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>18.149999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="0">
         <v>34000</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="0">
         <v>35000</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>18.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="0">
         <v>36000</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="0">
         <v>37000</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>19.25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="0">
         <v>38000</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>19.62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="0">
         <v>39000</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>19.96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="0">
         <v>40000</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>20.18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="0">
         <v>41000</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>20.52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="0">
         <v>42000</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>20.8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="0">
         <v>43000</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>21.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="0">
         <v>44000</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>21.45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="0">
         <v>45000</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>21.75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="0">
         <v>46000</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>22.02</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="0">
         <v>47000</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>22.32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="0">
         <v>48000</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>22.62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="0">
         <v>49000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>22.92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="0">
         <v>50000</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>23.22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="0">
         <v>51000</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>23.52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="0">
         <v>52000</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>23.82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="0">
         <v>53000</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>24.12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="0">
         <v>54000</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>24.42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="0">
         <v>55000</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>24.72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="0">
         <v>56000</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>25.02</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="0">
         <v>57000</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>25.32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="0">
         <v>58000</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>25.62</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="0">
         <v>59000</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>25.92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="0">
         <v>60000</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>26.22</v>
       </c>
     </row>
